--- a/log/PSOELM_extracted_result/PSOELM_slp01b_result/PSOELM_slp01b_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp01b_result/PSOELM_slp01b_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp01b_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp01b_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>Experiment</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>5 6 9 10 12 18</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1475,7 +1478,7 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,7 +1791,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2195,8 +2198,11 @@
       <c r="F20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
